--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task List" sheetId="1" r:id="rId1"/>
+    <sheet name="Variable List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>Tasks</t>
   </si>
@@ -55,6 +56,234 @@
   </si>
   <si>
     <t>Other Tasks (word count, execution time etc...)</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Column(s)</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Number of subscriptions per customers</t>
+  </si>
+  <si>
+    <t>Total subscription duration</t>
+  </si>
+  <si>
+    <t>Mean number of newspapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean number of start newspapers</t>
+  </si>
+  <si>
+    <t>Mean renewal duration</t>
+  </si>
+  <si>
+    <t>Time since last renewal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of payment type</t>
+  </si>
+  <si>
+    <t>Number of payment status</t>
+  </si>
+  <si>
+    <t>Mean time before payment</t>
+  </si>
+  <si>
+    <t>Mean and total net formula price</t>
+  </si>
+  <si>
+    <t>Mean total credit</t>
+  </si>
+  <si>
+    <t>Total Number of Renewals per Customer</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Gender_F</t>
+  </si>
+  <si>
+    <t>Gender_M</t>
+  </si>
+  <si>
+    <t>District_1</t>
+  </si>
+  <si>
+    <t>District_2</t>
+  </si>
+  <si>
+    <t>District_3</t>
+  </si>
+  <si>
+    <t>District_4</t>
+  </si>
+  <si>
+    <t>District_5</t>
+  </si>
+  <si>
+    <t>District_6</t>
+  </si>
+  <si>
+    <t>District_7</t>
+  </si>
+  <si>
+    <t>District_8</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>MVGender</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>MVAmount</t>
+  </si>
+  <si>
+    <t>CreditNb</t>
+  </si>
+  <si>
+    <t>ActionType.CC</t>
+  </si>
+  <si>
+    <t>ActionType.EN</t>
+  </si>
+  <si>
+    <t>ActionType.NC</t>
+  </si>
+  <si>
+    <t>ActionType.PO</t>
+  </si>
+  <si>
+    <t>CreditSource.COM</t>
+  </si>
+  <si>
+    <t>CreditSource.SUB</t>
+  </si>
+  <si>
+    <t>CreditSource.TRA</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>DeliveryNb</t>
+  </si>
+  <si>
+    <t>DeliveryType.DI</t>
+  </si>
+  <si>
+    <t>DeliveryType.DR</t>
+  </si>
+  <si>
+    <t>DeliveryType.MD</t>
+  </si>
+  <si>
+    <t>DeliveryClass.ABN</t>
+  </si>
+  <si>
+    <t>DeliveryClass.NOR</t>
+  </si>
+  <si>
+    <t>DeliveryContext.ACH</t>
+  </si>
+  <si>
+    <t>DeliveryContext.NPA</t>
+  </si>
+  <si>
+    <t>DeliveryContext.OTH</t>
+  </si>
+  <si>
+    <t>DeliveryContext.PCH</t>
+  </si>
+  <si>
+    <t>DeliveryContext.REN</t>
+  </si>
+  <si>
+    <t>DeliveryContext.VAC</t>
+  </si>
+  <si>
+    <t>Complaints</t>
+  </si>
+  <si>
+    <t>ComSolvingPercent</t>
+  </si>
+  <si>
+    <t>ComplaintType.1</t>
+  </si>
+  <si>
+    <t>ComplaintType.2</t>
+  </si>
+  <si>
+    <t>ComplaintType.3</t>
+  </si>
+  <si>
+    <t>ComplaintType.4</t>
+  </si>
+  <si>
+    <t>ComplaintType.5</t>
+  </si>
+  <si>
+    <t>ComplaintType.6</t>
+  </si>
+  <si>
+    <t>ComplaintType.7</t>
+  </si>
+  <si>
+    <t>ComplaintType.8</t>
+  </si>
+  <si>
+    <t>ComplaintType.9</t>
+  </si>
+  <si>
+    <t>SolutionType.1</t>
+  </si>
+  <si>
+    <t>SolutionType.2</t>
+  </si>
+  <si>
+    <t>SolutionType.3</t>
+  </si>
+  <si>
+    <t>SolutionType.4</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>FormulaType.CAM</t>
+  </si>
+  <si>
+    <t>FormulaType.REG</t>
+  </si>
+  <si>
+    <t>Duration.0</t>
+  </si>
+  <si>
+    <t>Duration.1</t>
+  </si>
+  <si>
+    <t>Duration.3</t>
+  </si>
+  <si>
+    <t>Duration.6</t>
+  </si>
+  <si>
+    <t>Duration.12</t>
+  </si>
+  <si>
+    <t>Duration.24</t>
   </si>
 </sst>
 </file>
@@ -104,7 +333,7 @@
       <name val="Abadi MT Condensed Light"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,12 +377,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -176,10 +415,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0"/>
@@ -686,6 +935,672 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
     <sheet name="Variable List" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Variable List'!$A$1:$C$69</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -947,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0"/>
@@ -1600,6 +1603,7 @@
       <c r="C69" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C69"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Task List" sheetId="1" r:id="rId1"/>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0"/>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
